--- a/backend/sql/data/snapshots/snap0/privateQuestionsTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/privateQuestionsTable.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>דוא"ל</t>
+          <t>אימייל</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>מספר שלב</t>
+          <t>שלב</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
